--- a/Test Case Documentation.xlsx
+++ b/Test Case Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resume\Job Applications\Geowox - Data Engineer Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD9FDC-B7F8-48BC-9ECA-E58592974FA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B317AC-9534-450D-B3AF-8FA1607E4BE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Test ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>"abc"</t>
   </si>
   <si>
-    <t>"Number of Cases can't be string Value"</t>
-  </si>
-  <si>
     <t>case_input_1</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>numbers_input_1</t>
   </si>
   <si>
-    <t>"abc cde"</t>
-  </si>
-  <si>
-    <t>"Input numbers can't be string values"</t>
-  </si>
-  <si>
     <t>000023 00000045000</t>
   </si>
   <si>
@@ -85,16 +76,52 @@
     <t>21st January 2021</t>
   </si>
   <si>
-    <t>number of cases input values using string</t>
-  </si>
-  <si>
-    <t>number of cases input values using negative integer</t>
-  </si>
-  <si>
     <t>input values using two string values</t>
   </si>
   <si>
     <t>input values using preceedng zeros</t>
+  </si>
+  <si>
+    <t>case_input_3</t>
+  </si>
+  <si>
+    <t>number of cases input value zero</t>
+  </si>
+  <si>
+    <t>"Number of Cases can't be non-integer"</t>
+  </si>
+  <si>
+    <t>number of cases input values as string</t>
+  </si>
+  <si>
+    <t>number of cases input values as negative integer</t>
+  </si>
+  <si>
+    <t>"Number of Cases can't be Zero"</t>
+  </si>
+  <si>
+    <t>"abc def"</t>
+  </si>
+  <si>
+    <t>numbers_input_3</t>
+  </si>
+  <si>
+    <t>input values using positive integers</t>
+  </si>
+  <si>
+    <t>305 794</t>
+  </si>
+  <si>
+    <t>"Input numbers were not integers"</t>
+  </si>
+  <si>
+    <t>numbers_input_4</t>
+  </si>
+  <si>
+    <t>input values using trailing zeros</t>
+  </si>
+  <si>
+    <t>5000 200</t>
   </si>
 </sst>
 </file>
@@ -102,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -132,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,19 +182,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -484,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,134 +593,212 @@
     <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
-        <v>68</v>
-      </c>
-      <c r="E5" s="2">
-        <v>68</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
